--- a/medicine/Mort/Terrorisme_en_1960/Terrorisme_en_1960.xlsx
+++ b/medicine/Mort/Terrorisme_en_1960/Terrorisme_en_1960.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,19 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-4 mars, Cuba : le navire cargo français La Coubre explose dans le port de La Havane, faisant une centaine de morts et plus de quatre cents blessés[1]. (voir l'article Explosion de la Coubre pour plus de détails)
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 mars, Cuba : le navire cargo français La Coubre explose dans le port de La Havane, faisant une centaine de morts et plus de quatre cents blessés. (voir l'article Explosion de la Coubre pour plus de détails)</t>
         </is>
       </c>
     </row>
